--- a/Tables/oos.xlsx
+++ b/Tables/oos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2019\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8887ED79-F38D-4C2F-BD61-0AC01F259C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF35A8A-65A0-47BB-BC00-4718F58F4F35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oos_pago_frec_vol" sheetId="5" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +886,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E14"/>
+      <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tables/oos.xlsx
+++ b/Tables/oos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2019\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF35A8A-65A0-47BB-BC00-4718F58F4F35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CCA047-97CE-4C77-B970-B3C13643C55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,23 +529,23 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="I4">
-        <v>0.33104350361566159</v>
+        <v>0.32652189040889479</v>
       </c>
       <c r="J4">
-        <v>0.33093475132674272</v>
+        <v>0.3282328073637209</v>
       </c>
       <c r="K4">
-        <v>0.31430618913428299</v>
+        <v>0.32498643549096179</v>
       </c>
       <c r="L4">
-        <v>0.33454527094670872</v>
+        <v>0.32503210306887459</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -562,23 +562,23 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D14" si="3">ROUND(K5,2)</f>
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E14" si="4">ROUND(L5,2)</f>
         <v>0.16</v>
       </c>
       <c r="I5">
-        <v>0.17344474792480469</v>
+        <v>0.17388621159797699</v>
       </c>
       <c r="J5">
-        <v>0.17009033277196789</v>
+        <v>0.17286425972906291</v>
       </c>
       <c r="K5">
-        <v>0.13746493071028329</v>
+        <v>0.15316050985585089</v>
       </c>
       <c r="L5">
-        <v>0.15814557121795361</v>
+        <v>0.1622063641386908</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -587,31 +587,31 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="2"/>
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="I6">
-        <v>0.75210642845060893</v>
+        <v>0.70172872300745326</v>
       </c>
       <c r="J6">
-        <v>0.76459719120453873</v>
+        <v>0.70073138777206212</v>
       </c>
       <c r="K6">
-        <v>0.74220251082046929</v>
+        <v>0.75000000383328447</v>
       </c>
       <c r="L6">
-        <v>0.80384330955132421</v>
+        <v>0.70904255586780285</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -632,16 +632,16 @@
         <v>(0.04)</v>
       </c>
       <c r="I7">
-        <v>4.3184624372453802E-2</v>
+        <v>3.95586567460363E-2</v>
       </c>
       <c r="J7">
-        <v>4.2007069966283603E-2</v>
+        <v>3.9659690727694402E-2</v>
       </c>
       <c r="K7">
-        <v>4.2938522057783798E-2</v>
+        <v>3.8507897799548503E-2</v>
       </c>
       <c r="L7">
-        <v>4.1385760857267799E-2</v>
+        <v>4.2985350176132198E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -654,27 +654,27 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:E8" si="6">ROUND(J8,2)</f>
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="6"/>
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="6"/>
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="I8">
-        <v>0.7659217165634451</v>
+        <v>0.77396496924768043</v>
       </c>
       <c r="J8">
-        <v>0.74903179890912575</v>
+        <v>0.76581533258133516</v>
       </c>
       <c r="K8">
-        <v>0.88842913983433047</v>
+        <v>0.87618734975717438</v>
       </c>
       <c r="L8">
-        <v>0.81048032139892134</v>
+        <v>0.92057691632090144</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -695,16 +695,16 @@
         <v>(0.01)</v>
       </c>
       <c r="I9">
-        <v>1.53021878488942E-2</v>
+        <v>1.56050075093791E-2</v>
       </c>
       <c r="J9">
-        <v>1.5591350361492199E-2</v>
+        <v>1.5712077024146901E-2</v>
       </c>
       <c r="K9">
-        <v>1.3106788651783399E-2</v>
+        <v>1.3490245984990001E-2</v>
       </c>
       <c r="L9">
-        <v>1.4652518255949201E-2</v>
+        <v>9.7362073698628992E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -713,31 +713,31 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="I10">
-        <v>0.68932038834951459</v>
+        <v>0.72946859903381644</v>
       </c>
       <c r="J10">
-        <v>0.69902912621359226</v>
+        <v>0.71980676328502413</v>
       </c>
       <c r="K10">
-        <v>0.81553398058252424</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="L10">
-        <v>0.70388349514563109</v>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -746,31 +746,31 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="2"/>
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I11">
-        <v>0.1766124182331073</v>
+        <v>0.25210316838426827</v>
       </c>
       <c r="J11">
-        <v>0.18962069502916579</v>
+        <v>0.22534144743270751</v>
       </c>
       <c r="K11">
-        <v>0.52008958310475639</v>
+        <v>0.29294185747782397</v>
       </c>
       <c r="L11">
-        <v>0.15499200139241531</v>
+        <v>0.28974679560956618</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="2"/>
@@ -787,23 +787,23 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="4"/>
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I12">
-        <v>0.22723681344073859</v>
+        <v>0.24480101914317701</v>
       </c>
       <c r="J12">
-        <v>0.23561721048335921</v>
+        <v>0.2378412271813454</v>
       </c>
       <c r="K12">
-        <v>0.46626377851679679</v>
+        <v>0.36770750833761662</v>
       </c>
       <c r="L12">
-        <v>0.2337149813150381</v>
+        <v>0.30574608966705658</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -812,31 +812,31 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="2"/>
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I13">
-        <v>-4.5023784400699499E-2</v>
+        <v>1.3981936840300999E-2</v>
       </c>
       <c r="J13">
-        <v>-2.48130622000577E-2</v>
+        <v>1.9776893169321502E-2</v>
       </c>
       <c r="K13">
-        <v>0.17175859268151461</v>
+        <v>0.13150658759664949</v>
       </c>
       <c r="L13">
-        <v>4.7155446920504801E-2</v>
+        <v>8.0212263350790597E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -845,11 +845,11 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="2"/>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="3"/>
@@ -857,19 +857,19 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I14">
-        <v>0.27463826893159698</v>
+        <v>0.25464810744143912</v>
       </c>
       <c r="J14">
-        <v>0.27388083542362579</v>
+        <v>0.25157850993356268</v>
       </c>
       <c r="K14">
-        <v>0.25313688149151292</v>
+        <v>0.24956970620486471</v>
       </c>
       <c r="L14">
-        <v>0.25136616590966299</v>
+        <v>0.26053130700464411</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -926,11 +926,11 @@
       </c>
       <c r="B4" s="1">
         <f>ROUND(I4,2)</f>
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:E14" si="0">ROUND(J4,2)</f>
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -938,19 +938,19 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I4">
-        <v>0.25189382755817041</v>
+        <v>0.21312861519615031</v>
       </c>
       <c r="J4">
-        <v>0.2427152992624198</v>
+        <v>0.213318565854098</v>
       </c>
       <c r="K4">
-        <v>0.2273369929543487</v>
+        <v>0.22755110787378771</v>
       </c>
       <c r="L4">
-        <v>0.2429073740568784</v>
+        <v>0.17079683384849681</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -959,11 +959,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B14" si="1">ROUND(I5,2)</f>
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
@@ -971,19 +971,19 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I5">
-        <v>0.13533901523899389</v>
+        <v>0.1028212555893907</v>
       </c>
       <c r="J5">
-        <v>0.1261800473874754</v>
+        <v>9.6941501170665301E-2</v>
       </c>
       <c r="K5">
-        <v>0.1018244339539124</v>
+        <v>9.9210077577883096E-2</v>
       </c>
       <c r="L5">
-        <v>0.114959141155621</v>
+        <v>9.0454737345377595E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -992,61 +992,61 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="I6">
-        <v>0.86042693292199091</v>
+        <v>0.75994109958807965</v>
       </c>
       <c r="J6">
-        <v>0.83174603207125564</v>
+        <v>0.78350515710532864</v>
       </c>
       <c r="K6">
-        <v>0.77301587255169024</v>
+        <v>0.84094257143069573</v>
       </c>
       <c r="L6">
-        <v>0.91666666835783028</v>
+        <v>0.84830633570016345</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>CONCATENATE("(",ROUND(I7,2),")")</f>
-        <v>(0.04)</v>
+        <v>(0.06)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ref="C7:E7" si="2">CONCATENATE("(",ROUND(J7,2),")")</f>
-        <v>(0.04)</v>
+        <v>(0.06)</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(0.05)</v>
+        <v>(0.06)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(0.03)</v>
+        <v>(0.05)</v>
       </c>
       <c r="I7">
-        <v>3.6683129077908903E-2</v>
+        <v>5.9232301735765901E-2</v>
       </c>
       <c r="J7">
-        <v>3.9516315550369101E-2</v>
+        <v>5.80190244953004E-2</v>
       </c>
       <c r="K7">
-        <v>4.6520856355896097E-2</v>
+        <v>5.7629577540237897E-2</v>
       </c>
       <c r="L7">
-        <v>3.10816499450168E-2</v>
+        <v>4.7703079318173199E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B8" s="1">
         <f>ROUND(I8,2)</f>
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:E8" si="3">ROUND(J8,2)</f>
@@ -1067,19 +1067,19 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="I8">
-        <v>0.82015997051116873</v>
+        <v>0.83631970612574547</v>
       </c>
       <c r="J8">
-        <v>0.82327628947759601</v>
+        <v>0.82354089369107175</v>
       </c>
       <c r="K8">
-        <v>0.91692008796034219</v>
+        <v>0.92042751185106175</v>
       </c>
       <c r="L8">
-        <v>0.91063939766437352</v>
+        <v>0.98546469481194099</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1093,23 +1093,23 @@
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>(0.02)</v>
+        <v>(0.01)</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>(0.02)</v>
+        <v>(0.01)</v>
       </c>
       <c r="I9">
-        <v>2.0639775861639099E-2</v>
+        <v>1.97634071406101E-2</v>
       </c>
       <c r="J9">
-        <v>2.0851979220795801E-2</v>
+        <v>2.0043167357099899E-2</v>
       </c>
       <c r="K9">
-        <v>1.54445712044804E-2</v>
+        <v>1.47651162715818E-2</v>
       </c>
       <c r="L9">
-        <v>1.7213948095935599E-2</v>
+        <v>8.5299841122181003E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1118,31 +1118,31 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="I10">
-        <v>0.73873873873873874</v>
+        <v>0.81981981981981977</v>
       </c>
       <c r="J10">
-        <v>0.7567567567567568</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="K10">
-        <v>0.87387387387387383</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="L10">
-        <v>0.80180180180180183</v>
+        <v>0.88288288288288286</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1151,31 +1151,31 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
+        <v>0.37</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I11">
-        <v>0.18581286343310499</v>
+        <v>0.12990499152750221</v>
       </c>
       <c r="J11">
-        <v>0.2085452614445876</v>
+        <v>0.26435935198821792</v>
       </c>
       <c r="K11">
-        <v>0.56806487695024166</v>
+        <v>0.36796860188837682</v>
       </c>
       <c r="L11">
-        <v>0.27476329262681748</v>
+        <v>0.31000445049992081</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1184,31 +1184,31 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+        <v>0.37</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="I12">
-        <v>0.1906786396871174</v>
+        <v>0.33422960577586419</v>
       </c>
       <c r="J12">
-        <v>0.25802392923347728</v>
+        <v>0.37694005479001419</v>
       </c>
       <c r="K12">
-        <v>0.5825291032596841</v>
+        <v>0.37353739522542939</v>
       </c>
       <c r="L12">
-        <v>0.26683134340039688</v>
+        <v>0.42519053331872669</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1217,31 +1217,31 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I13">
-        <v>-8.7164063202707295E-2</v>
+        <v>7.5517282219101103E-2</v>
       </c>
       <c r="J13">
-        <v>-1.35910385533385E-2</v>
+        <v>0.12838311539482811</v>
       </c>
       <c r="K13">
-        <v>0.18205504040969059</v>
+        <v>0.1079859740604177</v>
       </c>
       <c r="L13">
-        <v>7.6545320059123498E-2</v>
+        <v>0.186706669376244</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1250,31 +1250,31 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I14">
-        <v>0.19530271231559951</v>
+        <v>0.16633113123804771</v>
       </c>
       <c r="J14">
-        <v>0.1860951796949627</v>
+        <v>0.16728259587182179</v>
       </c>
       <c r="K14">
-        <v>0.15271804756946389</v>
+        <v>0.1574666995454479</v>
       </c>
       <c r="L14">
-        <v>0.1635351510265389</v>
+        <v>0.1159178499333762</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1331,31 +1331,31 @@
       </c>
       <c r="B4" s="1">
         <f>ROUND(I4,2)</f>
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:E14" si="0">ROUND(J4,2)</f>
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I4">
-        <v>0.41186162581706942</v>
+        <v>0.31988216819677578</v>
       </c>
       <c r="J4">
-        <v>0.40114987263099311</v>
+        <v>0.33243864102962811</v>
       </c>
       <c r="K4">
-        <v>0.36877687283335853</v>
+        <v>0.35589666236588302</v>
       </c>
       <c r="L4">
-        <v>0.40595697421342769</v>
+        <v>0.32275876836811612</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B14" si="1">ROUND(I5,2)</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
@@ -1376,19 +1376,19 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I5">
-        <v>0.2496645704228827</v>
+        <v>0.1537045620857401</v>
       </c>
       <c r="J5">
-        <v>0.23013938741481049</v>
+        <v>0.1600731484433438</v>
       </c>
       <c r="K5">
-        <v>0.1713395017258664</v>
+        <v>0.1653399061649404</v>
       </c>
       <c r="L5">
-        <v>0.1917565122563788</v>
+        <v>0.16933254485434671</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1397,61 +1397,61 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="I6">
-        <v>0.75768442708067596</v>
+        <v>0.84215685524703709</v>
       </c>
       <c r="J6">
-        <v>0.79259072500281036</v>
+        <v>0.83210783018639312</v>
       </c>
       <c r="K6">
-        <v>0.78578629158437252</v>
+        <v>0.86862744675839587</v>
       </c>
       <c r="L6">
-        <v>0.77268145536072552</v>
+        <v>0.81274509677188522</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>CONCATENATE("(",ROUND(I7,2),")")</f>
-        <v>(0.05)</v>
+        <v>(0.04)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ref="C7:E7" si="2">CONCATENATE("(",ROUND(J7,2),")")</f>
-        <v>(0.05)</v>
+        <v>(0.04)</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(0.05)</v>
+        <v>(0.04)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(0.05)</v>
+        <v>(0.04)</v>
       </c>
       <c r="I7">
-        <v>5.2258391612392999E-2</v>
+        <v>4.1764234727117197E-2</v>
       </c>
       <c r="J7">
-        <v>4.8426155199076101E-2</v>
+        <v>4.2808214831246597E-2</v>
       </c>
       <c r="K7">
-        <v>4.8504973306578603E-2</v>
+        <v>3.6670498755000301E-2</v>
       </c>
       <c r="L7">
-        <v>4.6042612430050797E-2</v>
+        <v>4.2872668678964297E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1468,23 +1468,23 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="I8">
-        <v>0.80343032395273606</v>
+        <v>0.79642382580391236</v>
       </c>
       <c r="J8">
-        <v>0.78853046706541563</v>
+        <v>0.7860411392032346</v>
       </c>
       <c r="K8">
-        <v>0.8944322970967874</v>
+        <v>0.89594659868803106</v>
       </c>
       <c r="L8">
-        <v>0.74493499792490825</v>
+        <v>0.9790911589960215</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1502,19 +1502,19 @@
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>(0.02)</v>
+        <v>(0.01)</v>
       </c>
       <c r="I9">
-        <v>1.93706682525462E-2</v>
+        <v>1.9679645570519301E-2</v>
       </c>
       <c r="J9">
-        <v>1.9983734187863401E-2</v>
+        <v>2.0059398761589499E-2</v>
       </c>
       <c r="K9">
-        <v>1.44195949812417E-2</v>
+        <v>1.4477937466145899E-2</v>
       </c>
       <c r="L9">
-        <v>2.0222938981319601E-2</v>
+        <v>5.8214934351933003E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1523,31 +1523,31 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I10">
-        <v>0.58510638297872342</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="J10">
-        <v>0.63829787234042556</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="K10">
-        <v>0.75531914893617025</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="L10">
-        <v>0.64893617021276595</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1556,31 +1556,31 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C11" s="1">
         <f>ROUND(J11,2)</f>
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.36</v>
       </c>
       <c r="I11">
-        <v>4.0116540583689402E-2</v>
+        <v>0.57939385907389329</v>
       </c>
       <c r="J11">
-        <v>0.2289515616739641</v>
+        <v>0.48114631913607009</v>
       </c>
       <c r="K11">
-        <v>0.46719836894714523</v>
+        <v>0.56517491480776849</v>
       </c>
       <c r="L11">
-        <v>7.2116039208839494E-2</v>
+        <v>0.36339666096169188</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1589,31 +1589,31 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="I12">
-        <v>0.1519223771038172</v>
+        <v>0.58051724563047802</v>
       </c>
       <c r="J12">
-        <v>0.19994420704068561</v>
+        <v>0.55987739583789031</v>
       </c>
       <c r="K12">
-        <v>0.42580725482975612</v>
+        <v>0.57162256691130209</v>
       </c>
       <c r="L12">
-        <v>0.28399396319957282</v>
+        <v>0.51937487417610162</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1622,31 +1622,31 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21</v>
+        <v>0.34</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.11</v>
+        <v>0.31</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.27</v>
       </c>
       <c r="I13">
-        <v>-0.20650507166215609</v>
+        <v>0.34133074423846088</v>
       </c>
       <c r="J13">
-        <v>-0.11214954382546879</v>
+        <v>0.31403947858249448</v>
       </c>
       <c r="K13">
-        <v>0.1720011475469741</v>
+        <v>0.29146987269906433</v>
       </c>
       <c r="L13">
-        <v>7.33358595106339E-2</v>
+        <v>0.27436024160946137</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1655,31 +1655,31 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="1"/>
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
       <c r="I14">
-        <v>0.38047478825567249</v>
+        <v>0.36060053964165301</v>
       </c>
       <c r="J14">
-        <v>0.37466527008392081</v>
+        <v>0.34640293613948092</v>
       </c>
       <c r="K14">
-        <v>0.34242331514016111</v>
+        <v>0.33441266845515433</v>
       </c>
       <c r="L14">
-        <v>0.33983349641586869</v>
+        <v>0.34080946245329807</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>

--- a/Tables/oos.xlsx
+++ b/Tables/oos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F82811C-5DE4-4F0D-A2C1-7E1454FE9909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="oos_pago_frec_vol" sheetId="5" r:id="rId1"/>
     <sheet name="oos_pago_frec_vol_fee" sheetId="4" r:id="rId2"/>
     <sheet name="oos_pago_frec_vol_promise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -152,19 +152,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,16 +483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="A19:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>14</v>
@@ -501,7 +501,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.6" thickTop="true" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" thickTop="true" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -539,19 +539,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I4">
-        <v>0.32415539091497952</v>
+        <v>0.29876092299908968</v>
       </c>
       <c r="J4">
-        <v>0.3275888061807784</v>
+        <v>0.29995205830602678</v>
       </c>
       <c r="K4">
-        <v>0.33104447854889762</v>
+        <v>0.31539230728926859</v>
       </c>
       <c r="L4">
-        <v>0.29374654561839098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.32024212869037177</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -572,19 +572,19 @@
         <v>0.16</v>
       </c>
       <c r="I5">
-        <v>0.17112020593910399</v>
+        <v>0.14922114386074789</v>
       </c>
       <c r="J5">
-        <v>0.1712484313669988</v>
+        <v>0.1509066226977657</v>
       </c>
       <c r="K5">
-        <v>0.16134247342169569</v>
+        <v>0.15150041626271421</v>
       </c>
       <c r="L5">
-        <v>0.1618843078613281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.15565407794454819</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -605,19 +605,19 @@
         <v>0.73</v>
       </c>
       <c r="I6">
-        <v>0.71379564005000384</v>
+        <v>0.77375795412879844</v>
       </c>
       <c r="J6">
-        <v>0.70932369502572723</v>
+        <v>0.76484076006017843</v>
       </c>
       <c r="K6">
-        <v>0.77432002225791585</v>
+        <v>0.79757961988638904</v>
       </c>
       <c r="L6">
-        <v>0.73376624119330758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.77057324151514384</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>CONCATENATE("(",ROUND(I7,2),")")</f>
         <v>(0.04)</v>
@@ -635,19 +635,19 @@
         <v>(0.04)</v>
       </c>
       <c r="I7">
-        <v>4.0153164731267101E-2</v>
+        <v>0.039567531636237198</v>
       </c>
       <c r="J7">
-        <v>4.0419626489594303E-2</v>
+        <v>0.040175793327711498</v>
       </c>
       <c r="K7">
-        <v>3.9012213721657502E-2</v>
+        <v>0.037045175218860499</v>
       </c>
       <c r="L7">
-        <v>4.2506711006832301E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.038629866030232697</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -668,19 +668,19 @@
         <v>0.96</v>
       </c>
       <c r="I8">
-        <v>0.77054206822110771</v>
+        <v>0.75927400673325851</v>
       </c>
       <c r="J8">
-        <v>0.76479291027967011</v>
+        <v>0.75221204142830833</v>
       </c>
       <c r="K8">
-        <v>0.87556398900853849</v>
+        <v>0.87379146035638344</v>
       </c>
       <c r="L8">
-        <v>0.9613267384255626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.83834755707842912</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="str">
         <f t="shared" ref="B9" si="7">CONCATENATE("(",ROUND(I9,2),")")</f>
         <v>(0.02)</v>
@@ -698,19 +698,19 @@
         <v>(0.01)</v>
       </c>
       <c r="I9">
-        <v>1.5773261191095199E-2</v>
+        <v>0.015715355688691601</v>
       </c>
       <c r="J9">
-        <v>1.5859995831839401E-2</v>
+        <v>0.015789085696552501</v>
       </c>
       <c r="K9">
-        <v>1.35519589750412E-2</v>
+        <v>0.013753055858661101</v>
       </c>
       <c r="L9">
-        <v>5.9471682678651997E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.0134523148749111</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -731,19 +731,19 @@
         <v>0.77</v>
       </c>
       <c r="I10">
-        <v>0.70048309178743962</v>
+        <v>0.77294685990338163</v>
       </c>
       <c r="J10">
-        <v>0.69565217391304346</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="K10">
         <v>0.75362318840579712</v>
       </c>
       <c r="L10">
-        <v>0.76811594202898548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -764,19 +764,19 @@
         <v>0.38</v>
       </c>
       <c r="I11">
-        <v>0.21379563832394011</v>
+        <v>0.40155597847888153</v>
       </c>
       <c r="J11">
-        <v>0.2158238856353317</v>
+        <v>0.39462577544128402</v>
       </c>
       <c r="K11">
-        <v>0.3896800670210383</v>
+        <v>0.36875261807523541</v>
       </c>
       <c r="L11">
-        <v>0.38382586520103412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.38525974238462968</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -797,19 +797,19 @@
         <v>0.4</v>
       </c>
       <c r="I12">
-        <v>0.3316069515468017</v>
+        <v>0.43156871865542351</v>
       </c>
       <c r="J12">
-        <v>0.32887457021634348</v>
+        <v>0.4216236480314085</v>
       </c>
       <c r="K12">
-        <v>0.42140229479034508</v>
+        <v>0.4496237378390267</v>
       </c>
       <c r="L12">
-        <v>0.40036026397218299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.41262911550148101</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -830,19 +830,19 @@
         <v>0.15</v>
       </c>
       <c r="I13">
-        <v>0.10599022033138029</v>
+        <v>0.18941553929808749</v>
       </c>
       <c r="J13">
-        <v>0.1053203123803523</v>
+        <v>0.18025984648686291</v>
       </c>
       <c r="K13">
-        <v>0.15707354182210859</v>
+        <v>0.17703429932806869</v>
       </c>
       <c r="L13">
-        <v>0.1542427522883173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.15447118576924521</v>
+      </c>
+    </row>
+    <row r="14" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -863,20 +863,20 @@
         <v>0.22</v>
       </c>
       <c r="I14">
-        <v>0.2486610807127495</v>
+        <v>0.23542725189098559</v>
       </c>
       <c r="J14">
-        <v>0.25276660025659681</v>
+        <v>0.23046351785227151</v>
       </c>
       <c r="K14">
-        <v>0.24188830145603221</v>
+        <v>0.23221790441424381</v>
       </c>
       <c r="L14">
-        <v>0.22402751920429839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.2321760727155612</v>
+      </c>
+    </row>
+    <row r="15" ht="15" thickTop="true" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="7" t="s">
         <v>14</v>
@@ -885,7 +885,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.6" thickTop="true" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -902,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="15" thickTop="true" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="str">
         <f t="shared" ref="B22:E22" si="12">B7</f>
         <v>(0.04)</v>
@@ -941,7 +941,7 @@
         <v>(0.04)</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="str">
         <f t="shared" ref="B24:E24" si="14">B9</f>
         <v>(0.02)</v>
@@ -980,7 +980,7 @@
         <v>(0.01)</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15" thickTop="true" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -1021,10 +1021,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1033,7 +1033,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.6" thickTop="true" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" thickTop="true" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1071,19 +1071,19 @@
         <v>0.21</v>
       </c>
       <c r="I4">
-        <v>0.2298191775015119</v>
+        <v>0.2227522761263121</v>
       </c>
       <c r="J4">
-        <v>0.22246650476711341</v>
+        <v>0.21598377519419321</v>
       </c>
       <c r="K4">
-        <v>0.23018097072034269</v>
+        <v>0.23237049240652499</v>
       </c>
       <c r="L4">
-        <v>0.207280150790875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.21188329852202931</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1104,19 +1104,19 @@
         <v>0.09</v>
       </c>
       <c r="I5">
-        <v>0.1206073331403303</v>
+        <v>0.12074442167539851</v>
       </c>
       <c r="J5">
-        <v>0.111544420053293</v>
+        <v>0.11169839120125991</v>
       </c>
       <c r="K5">
-        <v>0.104358587179098</v>
+        <v>0.1072400325053447</v>
       </c>
       <c r="L5">
-        <v>9.2105281245601106E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.11045445622624581</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1137,19 +1137,19 @@
         <v>0.81</v>
       </c>
       <c r="I6">
-        <v>0.76388889547540906</v>
+        <v>0.76388889542884253</v>
       </c>
       <c r="J6">
-        <v>0.79861111403960305</v>
+        <v>0.76875000440826036</v>
       </c>
       <c r="K6">
-        <v>0.85416667164924232</v>
+        <v>0.78055555888244665</v>
       </c>
       <c r="L6">
-        <v>0.811805566255417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.78680556117970901</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>CONCATENATE("(",ROUND(I7,2),")")</f>
         <v>(0.05)</v>
@@ -1167,19 +1167,19 @@
         <v>(0.06)</v>
       </c>
       <c r="I7">
-        <v>4.9777538152842499E-2</v>
+        <v>0.053243170521964998</v>
       </c>
       <c r="J7">
-        <v>4.4388352566231297E-2</v>
+        <v>0.0541617061220648</v>
       </c>
       <c r="K7">
-        <v>3.9826589527113501E-2</v>
+        <v>0.051753578782367297</v>
       </c>
       <c r="L7">
-        <v>5.8882764524068099E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.051569759765743399</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1200,19 +1200,19 @@
         <v>0.96</v>
       </c>
       <c r="I8">
-        <v>0.83278885718725681</v>
+        <v>0.83742630419953501</v>
       </c>
       <c r="J8">
-        <v>0.81589125049520173</v>
+        <v>0.82642409117787263</v>
       </c>
       <c r="K8">
-        <v>0.91964251775440586</v>
+        <v>0.9296684260848973</v>
       </c>
       <c r="L8">
-        <v>0.96498441516220557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.94874394949001783</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="str">
         <f t="shared" ref="B9:E9" si="4">CONCATENATE("(",ROUND(I9,2),")")</f>
         <v>(0.02)</v>
@@ -1230,19 +1230,19 @@
         <v>(0.01)</v>
       </c>
       <c r="I9">
-        <v>1.9997762674536401E-2</v>
+        <v>0.0200607760744052</v>
       </c>
       <c r="J9">
-        <v>2.1014563876874798E-2</v>
+        <v>0.020491937260801701</v>
       </c>
       <c r="K9">
-        <v>1.5256906719229199E-2</v>
+        <v>0.0136267352260047</v>
       </c>
       <c r="L9">
-        <v>9.4540346649151005E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.0107578042101512</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1263,19 +1263,19 @@
         <v>0.86</v>
       </c>
       <c r="I10">
-        <v>0.73873873873873874</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="J10">
-        <v>0.7567567567567568</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="K10">
-        <v>0.84684684684684686</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="L10">
-        <v>0.86486486486486491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.81081081081081086</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1296,19 +1296,19 @@
         <v>0.41</v>
       </c>
       <c r="I11">
-        <v>6.7891790366603394E-2</v>
+        <v>0.17018128710451469</v>
       </c>
       <c r="J11">
-        <v>0.1339969546709279</v>
+        <v>0.25505639266809238</v>
       </c>
       <c r="K11">
-        <v>0.36297042978008109</v>
+        <v>0.12459257757982591</v>
       </c>
       <c r="L11">
-        <v>0.40546365212664381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.21291561523412569</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1329,19 +1329,19 @@
         <v>0.47</v>
       </c>
       <c r="I12">
-        <v>0.26842350825848899</v>
+        <v>0.30655431494183077</v>
       </c>
       <c r="J12">
-        <v>0.30351088528104181</v>
+        <v>0.32088049258398949</v>
       </c>
       <c r="K12">
-        <v>0.39586038776183041</v>
+        <v>0.31842320254232231</v>
       </c>
       <c r="L12">
-        <v>0.47042955130262248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.31371607570461663</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1362,19 +1362,19 @@
         <v>0.22</v>
       </c>
       <c r="I13">
-        <v>-2.26496789190502E-2</v>
+        <v>-0.023812075455982601</v>
       </c>
       <c r="J13">
-        <v>5.4196271631453602E-2</v>
+        <v>0.0528907246059842</v>
       </c>
       <c r="K13">
-        <v>0.1151261462105653</v>
+        <v>0.090693891048431896</v>
       </c>
       <c r="L13">
-        <v>0.21902396943834099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.063438256581624594</v>
+      </c>
+    </row>
+    <row r="14" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1395,20 +1395,20 @@
         <v>0.16</v>
       </c>
       <c r="I14">
-        <v>0.17834151159764289</v>
+        <v>0.18243361448004911</v>
       </c>
       <c r="J14">
-        <v>0.1679606383770226</v>
+        <v>0.1667835349736207</v>
       </c>
       <c r="K14">
-        <v>0.15298378239343829</v>
+        <v>0.15269345887475189</v>
       </c>
       <c r="L14">
-        <v>0.1602369711507817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.1566764534857997</v>
+      </c>
+    </row>
+    <row r="15" ht="15" thickTop="true" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -1417,7 +1417,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.6" thickTop="true" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="15" thickTop="true" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>A6</f>
         <v>AUC (out of sample)</v>
@@ -1456,7 +1456,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="str">
         <f t="shared" ref="A22:E22" si="6">B7</f>
         <v>(0.05)</v>
@@ -1474,7 +1474,7 @@
         <v>(0.06)</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" ref="A23:E23" si="7">A8</f>
         <v>AUC (in sample)</v>
@@ -1496,7 +1496,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="str">
         <f t="shared" ref="A24:E24" si="8">B9</f>
         <v>(0.02)</v>
@@ -1514,7 +1514,7 @@
         <v>(0.01)</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
         <f t="shared" ref="A25:E25" si="9">A10</f>
         <v>Accuracy</v>
@@ -1536,7 +1536,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15" thickTop="true" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -1556,10 +1556,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>16</v>
@@ -1568,7 +1568,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.6" thickTop="true" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" thickTop="true" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1606,19 +1606,19 @@
         <v>0.36</v>
       </c>
       <c r="I4">
-        <v>0.41060065395109591</v>
+        <v>0.36381110744402212</v>
       </c>
       <c r="J4">
-        <v>0.4116852785698436</v>
+        <v>0.37656269091716471</v>
       </c>
       <c r="K4">
-        <v>0.40731278184722081</v>
+        <v>0.37071027848473248</v>
       </c>
       <c r="L4">
-        <v>0.36128224159016248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.39295454212325692</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1639,19 +1639,19 @@
         <v>0.21</v>
       </c>
       <c r="I5">
-        <v>0.23595584707057221</v>
+        <v>0.196185051126683</v>
       </c>
       <c r="J5">
-        <v>0.23400566425729311</v>
+        <v>0.20775241040168921</v>
       </c>
       <c r="K5">
-        <v>0.20637185522850521</v>
+        <v>0.18006483037421039</v>
       </c>
       <c r="L5">
-        <v>0.20588371601510561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.18908884170207571</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1672,19 +1672,19 @@
         <v>0.72</v>
       </c>
       <c r="I6">
-        <v>0.6282641956581706</v>
+        <v>0.71830237819479725</v>
       </c>
       <c r="J6">
-        <v>0.62544801161961694</v>
+        <v>0.68647214099814191</v>
       </c>
       <c r="K6">
-        <v>0.6973886120982401</v>
+        <v>0.76021219716217114</v>
       </c>
       <c r="L6">
-        <v>0.71684586688593899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.70265251479459934</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>CONCATENATE("(",ROUND(I7,2),")")</f>
         <v>(0.06)</v>
@@ -1702,19 +1702,19 @@
         <v>(0.06)</v>
       </c>
       <c r="I7">
-        <v>6.0100732269461797E-2</v>
+        <v>0.055803131672913002</v>
       </c>
       <c r="J7">
-        <v>6.0531591689669997E-2</v>
+        <v>0.056787581879631802</v>
       </c>
       <c r="K7">
-        <v>5.88315894347868E-2</v>
+        <v>0.053049616326186898</v>
       </c>
       <c r="L7">
-        <v>5.6903332509645001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.055729715648370599</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1735,19 +1735,19 @@
         <v>0.97</v>
       </c>
       <c r="I8">
-        <v>0.82737533509188699</v>
+        <v>0.81609761176367968</v>
       </c>
       <c r="J8">
-        <v>0.82049552797245573</v>
+        <v>0.8012186582778521</v>
       </c>
       <c r="K8">
-        <v>0.89885635727833046</v>
+        <v>0.89510896161019415</v>
       </c>
       <c r="L8">
-        <v>0.97332764343509837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.81547858781499705</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="str">
         <f t="shared" ref="B9:E9" si="4">CONCATENATE("(",ROUND(I9,2),")")</f>
         <v>(0.02)</v>
@@ -1765,19 +1765,19 @@
         <v>(0.01)</v>
       </c>
       <c r="I9">
-        <v>1.7966696098924699E-2</v>
+        <v>0.0186405777666422</v>
       </c>
       <c r="J9">
-        <v>1.8562087461644901E-2</v>
+        <v>0.019234581565911599</v>
       </c>
       <c r="K9">
-        <v>1.43708700917425E-2</v>
+        <v>0.014013606646773299</v>
       </c>
       <c r="L9">
-        <v>7.0990446305698E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.018837461106733198</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1798,19 +1798,19 @@
         <v>0.7</v>
       </c>
       <c r="I10">
-        <v>0.61702127659574468</v>
+        <v>0.69148936170212771</v>
       </c>
       <c r="J10">
-        <v>0.67021276595744683</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="K10">
-        <v>0.64893617021276595</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L10">
-        <v>0.7021276595744681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.69148936170212771</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1831,19 +1831,19 @@
         <v>0.32</v>
       </c>
       <c r="I11">
-        <v>0.14777283703766711</v>
+        <v>0.2700373738300143</v>
       </c>
       <c r="J11">
-        <v>0.24787886640791779</v>
+        <v>0.16834325623917759</v>
       </c>
       <c r="K11">
-        <v>0.22544795924078259</v>
+        <v>0.31531786385356791</v>
       </c>
       <c r="L11">
-        <v>0.31531786385356803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.27003737383001419</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1864,19 +1864,19 @@
         <v>0.35</v>
       </c>
       <c r="I12">
-        <v>0.21563969229709259</v>
+        <v>0.34192434086511958</v>
       </c>
       <c r="J12">
-        <v>0.21015677432472671</v>
+        <v>0.30924956867698988</v>
       </c>
       <c r="K12">
-        <v>0.29567983899610112</v>
+        <v>0.40132745180685392</v>
       </c>
       <c r="L12">
-        <v>0.34999073824432342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.34824554293972498</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1897,19 +1897,19 @@
         <v>0.08</v>
       </c>
       <c r="I13">
-        <v>-5.6183315458751999E-2</v>
+        <v>0.090159301353070001</v>
       </c>
       <c r="J13">
-        <v>-4.7453925723121702E-2</v>
+        <v>0.036513755049566402</v>
       </c>
       <c r="K13">
-        <v>7.6240267072405096E-2</v>
+        <v>0.16491949754305171</v>
       </c>
       <c r="L13">
-        <v>7.8425271170479496E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.1230691489869782</v>
+      </c>
+    </row>
+    <row r="14" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1930,20 +1930,20 @@
         <v>0.35</v>
       </c>
       <c r="I14">
-        <v>0.38616938560339131</v>
+        <v>0.34201023863638408</v>
       </c>
       <c r="J14">
-        <v>0.38038462554005548</v>
+        <v>0.36477182341858427</v>
       </c>
       <c r="K14">
-        <v>0.37951813622357999</v>
+        <v>0.34157019053050808</v>
       </c>
       <c r="L14">
-        <v>0.35444260364834301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.34778111982852861</v>
+      </c>
+    </row>
+    <row r="15" ht="15" thickTop="true" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="7" t="s">
         <v>16</v>
@@ -1952,7 +1952,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.6" thickTop="true" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="15" thickTop="true" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>A6</f>
         <v>AUC (out of sample)</v>
@@ -1991,7 +1991,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="str">
         <f t="shared" ref="A22:E22" si="6">B7</f>
         <v>(0.06)</v>
@@ -2009,7 +2009,7 @@
         <v>(0.06)</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" ref="A23:E23" si="7">A8</f>
         <v>AUC (in sample)</v>
@@ -2031,7 +2031,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="str">
         <f t="shared" ref="A24:E25" si="8">B9</f>
         <v>(0.02)</v>
@@ -2049,7 +2049,7 @@
         <v>(0.01)</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
         <f>A10</f>
         <v>Accuracy</v>
@@ -2071,7 +2071,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15" thickTop="true" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
